--- a/data-raw/pederson.lettuce.repeated.xlsx
+++ b/data-raw/pederson.lettuce.repeated.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFA45AA-C905-4196-9F38-5753CE4CBD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="14340" windowHeight="9744"/>
+    <workbookView xWindow="3320" yWindow="2280" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lettuce" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -45,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -87,8 +101,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,9 +127,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,9 +167,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,26 +202,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,26 +237,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -432,19 +412,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -472,7 +452,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,7 +466,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -500,7 +480,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -514,7 +494,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -528,7 +508,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -542,7 +522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -556,7 +536,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -570,7 +550,7 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -584,7 +564,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -598,7 +578,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -612,7 +592,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -626,7 +606,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -640,7 +620,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -654,7 +634,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -668,7 +648,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -682,7 +662,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -696,7 +676,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -710,7 +690,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -724,7 +704,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -738,7 +718,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -752,7 +732,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -766,7 +746,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -780,7 +760,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -794,7 +774,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -808,7 +788,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -822,7 +802,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -836,7 +816,7 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -850,7 +830,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -864,7 +844,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -878,7 +858,7 @@
         <v>83.4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -892,7 +872,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -906,7 +886,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -920,7 +900,7 @@
         <v>103.9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -934,7 +914,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -948,7 +928,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -962,7 +942,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -976,7 +956,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -990,7 +970,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -1004,7 +984,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -1018,7 +998,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -1032,7 +1012,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -1046,7 +1026,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -1060,7 +1040,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>4</v>
       </c>
@@ -1074,7 +1054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>5</v>
       </c>
@@ -1088,7 +1068,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>5</v>
       </c>
@@ -1102,7 +1082,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>5</v>
       </c>
@@ -1116,7 +1096,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>5</v>
       </c>
@@ -1130,7 +1110,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>5</v>
       </c>
@@ -1144,7 +1124,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>5</v>
       </c>
@@ -1158,7 +1138,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>5</v>
       </c>
@@ -1172,7 +1152,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>5</v>
       </c>
@@ -1186,7 +1166,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>5</v>
       </c>
@@ -1200,7 +1180,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>5</v>
       </c>
@@ -1214,7 +1194,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -1228,7 +1208,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -1242,7 +1222,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>6</v>
       </c>
@@ -1256,7 +1236,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>6</v>
       </c>
@@ -1270,7 +1250,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>6</v>
       </c>
@@ -1284,7 +1264,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>6</v>
       </c>
@@ -1298,7 +1278,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>6</v>
       </c>
@@ -1312,7 +1292,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>6</v>
       </c>
@@ -1326,7 +1306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>6</v>
       </c>
@@ -1340,7 +1320,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>6</v>
       </c>
@@ -1354,7 +1334,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>6</v>
       </c>
@@ -1368,7 +1348,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>6</v>
       </c>
@@ -1382,7 +1362,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>7</v>
       </c>
@@ -1396,7 +1376,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>7</v>
       </c>
@@ -1410,7 +1390,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>7</v>
       </c>
@@ -1424,7 +1404,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>7</v>
       </c>
@@ -1438,7 +1418,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>7</v>
       </c>
@@ -1452,7 +1432,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>7</v>
       </c>
@@ -1466,7 +1446,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>7</v>
       </c>
@@ -1480,7 +1460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>7</v>
       </c>
@@ -1494,7 +1474,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>7</v>
       </c>
@@ -1508,7 +1488,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>7</v>
       </c>
@@ -1522,7 +1502,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>7</v>
       </c>
@@ -1536,7 +1516,7 @@
         <v>97.4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>8</v>
       </c>
@@ -1550,7 +1530,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>8</v>
       </c>
@@ -1564,7 +1544,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>8</v>
       </c>
@@ -1578,7 +1558,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>8</v>
       </c>
@@ -1592,7 +1572,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -1606,7 +1586,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>8</v>
       </c>
@@ -1620,7 +1600,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>8</v>
       </c>
@@ -1634,7 +1614,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>8</v>
       </c>
@@ -1648,7 +1628,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>8</v>
       </c>
@@ -1662,7 +1642,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>8</v>
       </c>
@@ -1676,7 +1656,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>8</v>
       </c>
@@ -1690,7 +1670,7 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>9</v>
       </c>
@@ -1704,7 +1684,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>9</v>
       </c>
@@ -1718,7 +1698,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>9</v>
       </c>
@@ -1732,7 +1712,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>9</v>
       </c>
@@ -1746,7 +1726,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>9</v>
       </c>
@@ -1760,7 +1740,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>9</v>
       </c>
@@ -1774,7 +1754,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>9</v>
       </c>
@@ -1788,7 +1768,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>9</v>
       </c>
@@ -1802,7 +1782,7 @@
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>9</v>
       </c>
@@ -1816,7 +1796,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>9</v>
       </c>
@@ -1830,7 +1810,7 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>9</v>
       </c>
@@ -1844,7 +1824,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>10</v>
       </c>
@@ -1858,7 +1838,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>10</v>
       </c>
@@ -1872,7 +1852,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>10</v>
       </c>
@@ -1886,7 +1866,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>10</v>
       </c>
@@ -1900,7 +1880,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>10</v>
       </c>
@@ -1914,7 +1894,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>10</v>
       </c>
@@ -1928,7 +1908,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>10</v>
       </c>
@@ -1942,7 +1922,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>10</v>
       </c>
@@ -1956,7 +1936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>10</v>
       </c>
@@ -1970,7 +1950,7 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>10</v>
       </c>
@@ -1984,7 +1964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>10</v>
       </c>
@@ -1998,7 +1978,7 @@
         <v>86.2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>11</v>
       </c>
@@ -2012,7 +1992,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>11</v>
       </c>
@@ -2026,7 +2006,7 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>11</v>
       </c>
@@ -2040,7 +2020,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>11</v>
       </c>
@@ -2054,7 +2034,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>11</v>
       </c>
@@ -2068,7 +2048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>11</v>
       </c>
@@ -2082,7 +2062,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>11</v>
       </c>
@@ -2096,7 +2076,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>11</v>
       </c>
@@ -2110,7 +2090,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>11</v>
       </c>
@@ -2124,7 +2104,7 @@
         <v>74.7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>11</v>
       </c>
@@ -2138,7 +2118,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>11</v>
       </c>
@@ -2152,7 +2132,7 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>12</v>
       </c>
@@ -2166,7 +2146,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>12</v>
       </c>
@@ -2180,7 +2160,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>12</v>
       </c>
@@ -2194,7 +2174,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>12</v>
       </c>
@@ -2208,7 +2188,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>12</v>
       </c>
@@ -2222,7 +2202,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>12</v>
       </c>
@@ -2236,7 +2216,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>12</v>
       </c>
@@ -2250,7 +2230,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>12</v>
       </c>
@@ -2264,7 +2244,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>12</v>
       </c>
@@ -2278,7 +2258,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>12</v>
       </c>
@@ -2292,7 +2272,7 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>12</v>
       </c>
@@ -2306,7 +2286,7 @@
         <v>87.4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>13</v>
       </c>
@@ -2320,7 +2300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>13</v>
       </c>
@@ -2334,7 +2314,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>13</v>
       </c>
@@ -2348,7 +2328,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>13</v>
       </c>
@@ -2362,7 +2342,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>13</v>
       </c>
@@ -2376,7 +2356,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>13</v>
       </c>
@@ -2390,7 +2370,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>13</v>
       </c>
@@ -2404,7 +2384,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>13</v>
       </c>
@@ -2418,7 +2398,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>13</v>
       </c>
@@ -2432,7 +2412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>13</v>
       </c>
@@ -2446,7 +2426,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>13</v>
       </c>
@@ -2460,7 +2440,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>14</v>
       </c>
@@ -2474,7 +2454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>14</v>
       </c>
@@ -2488,7 +2468,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>14</v>
       </c>
@@ -2502,7 +2482,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>14</v>
       </c>
@@ -2516,7 +2496,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>14</v>
       </c>
@@ -2530,7 +2510,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>14</v>
       </c>
@@ -2544,7 +2524,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>14</v>
       </c>
@@ -2558,7 +2538,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>14</v>
       </c>
@@ -2572,7 +2552,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>14</v>
       </c>
@@ -2586,7 +2566,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>14</v>
       </c>
@@ -2600,7 +2580,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>14</v>
       </c>
@@ -2614,7 +2594,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>15</v>
       </c>
@@ -2628,7 +2608,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>15</v>
       </c>
@@ -2642,7 +2622,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>15</v>
       </c>
@@ -2656,7 +2636,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>15</v>
       </c>
@@ -2670,7 +2650,7 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>15</v>
       </c>
@@ -2684,7 +2664,7 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>15</v>
       </c>
@@ -2698,7 +2678,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>15</v>
       </c>
@@ -2712,7 +2692,7 @@
         <v>68.7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>15</v>
       </c>
@@ -2726,7 +2706,7 @@
         <v>78.8</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>15</v>
       </c>
@@ -2740,7 +2720,7 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>15</v>
       </c>
@@ -2754,7 +2734,7 @@
         <v>93.4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>15</v>
       </c>
@@ -2768,7 +2748,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>16</v>
       </c>
@@ -2782,7 +2762,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>16</v>
       </c>
@@ -2796,7 +2776,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>16</v>
       </c>
@@ -2810,7 +2790,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>16</v>
       </c>
@@ -2824,7 +2804,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>16</v>
       </c>
@@ -2838,7 +2818,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>16</v>
       </c>
@@ -2852,7 +2832,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>16</v>
       </c>
@@ -2866,7 +2846,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>16</v>
       </c>
@@ -2880,7 +2860,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>16</v>
       </c>
@@ -2894,7 +2874,7 @@
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>16</v>
       </c>
@@ -2908,7 +2888,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>16</v>
       </c>
@@ -2922,7 +2902,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>17</v>
       </c>
@@ -2936,7 +2916,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>17</v>
       </c>
@@ -2950,7 +2930,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>17</v>
       </c>
@@ -2964,7 +2944,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>17</v>
       </c>
@@ -2978,7 +2958,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>17</v>
       </c>
@@ -2992,7 +2972,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>17</v>
       </c>
@@ -3006,7 +2986,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>17</v>
       </c>
@@ -3020,7 +3000,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>17</v>
       </c>
@@ -3034,7 +3014,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>17</v>
       </c>
@@ -3048,7 +3028,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>17</v>
       </c>
@@ -3062,7 +3042,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>17</v>
       </c>
@@ -3076,7 +3056,7 @@
         <v>86.1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>18</v>
       </c>
@@ -3090,7 +3070,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>18</v>
       </c>
@@ -3104,7 +3084,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>18</v>
       </c>
@@ -3118,7 +3098,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>18</v>
       </c>
@@ -3132,7 +3112,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>18</v>
       </c>
@@ -3146,7 +3126,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>18</v>
       </c>
@@ -3160,7 +3140,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>18</v>
       </c>
@@ -3174,7 +3154,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>18</v>
       </c>
@@ -3188,7 +3168,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>18</v>
       </c>
@@ -3202,7 +3182,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>18</v>
       </c>
@@ -3216,7 +3196,7 @@
         <v>82.1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>18</v>
       </c>
@@ -3230,7 +3210,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>19</v>
       </c>
@@ -3244,9 +3224,9 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <f>A3+18</f>
+        <f t="shared" ref="A201:A264" si="0">A3+18</f>
         <v>19</v>
       </c>
       <c r="B201" s="1">
@@ -3259,9 +3239,9 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <f>A4+18</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B202" s="1">
@@ -3274,9 +3254,9 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <f>A5+18</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B203" s="1">
@@ -3289,9 +3269,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <f>A6+18</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B204" s="1">
@@ -3304,9 +3284,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <f>A7+18</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B205" s="1">
@@ -3319,9 +3299,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <f>A8+18</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B206" s="1">
@@ -3334,9 +3314,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <f>A9+18</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B207" s="1">
@@ -3349,9 +3329,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <f>A10+18</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B208" s="1">
@@ -3364,9 +3344,9 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <f>A11+18</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B209" s="1">
@@ -3379,9 +3359,9 @@
         <v>73.2</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <f>A12+18</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B210" s="1">
@@ -3394,9 +3374,9 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <f>A13+18</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B211" s="1">
@@ -3409,9 +3389,9 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <f>A14+18</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B212" s="1">
@@ -3424,9 +3404,9 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <f>A15+18</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B213" s="1">
@@ -3439,9 +3419,9 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <f>A16+18</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B214" s="1">
@@ -3454,9 +3434,9 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <f>A17+18</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B215" s="1">
@@ -3469,9 +3449,9 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <f>A18+18</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B216" s="1">
@@ -3484,9 +3464,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <f>A19+18</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B217" s="1">
@@ -3499,9 +3479,9 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <f>A20+18</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B218" s="1">
@@ -3514,9 +3494,9 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <f>A21+18</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B219" s="1">
@@ -3529,9 +3509,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <f>A22+18</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B220" s="1">
@@ -3544,9 +3524,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <f>A23+18</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B221" s="1">
@@ -3559,9 +3539,9 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <f>A24+18</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B222" s="1">
@@ -3574,9 +3554,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <f>A25+18</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B223" s="1">
@@ -3589,9 +3569,9 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <f>A26+18</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B224" s="1">
@@ -3604,9 +3584,9 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f>A27+18</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B225" s="1">
@@ -3619,9 +3599,9 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <f>A28+18</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B226" s="1">
@@ -3634,9 +3614,9 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <f>A29+18</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B227" s="1">
@@ -3649,9 +3629,9 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <f>A30+18</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B228" s="1">
@@ -3664,9 +3644,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <f>A31+18</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B229" s="1">
@@ -3679,9 +3659,9 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <f>A32+18</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B230" s="1">
@@ -3694,9 +3674,9 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <f>A33+18</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B231" s="1">
@@ -3709,9 +3689,9 @@
         <v>85.1</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <f>A34+18</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B232" s="1">
@@ -3724,9 +3704,9 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <f>A35+18</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B233" s="1">
@@ -3739,9 +3719,9 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <f>A36+18</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B234" s="1">
@@ -3754,9 +3734,9 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <f>A37+18</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B235" s="1">
@@ -3769,9 +3749,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <f>A38+18</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B236" s="1">
@@ -3784,9 +3764,9 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <f>A39+18</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B237" s="1">
@@ -3799,9 +3779,9 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <f>A40+18</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B238" s="1">
@@ -3814,9 +3794,9 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <f>A41+18</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B239" s="1">
@@ -3829,9 +3809,9 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <f>A42+18</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B240" s="1">
@@ -3844,9 +3824,9 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <f>A43+18</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B241" s="1">
@@ -3859,9 +3839,9 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <f>A44+18</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B242" s="1">
@@ -3874,9 +3854,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <f>A45+18</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B243" s="1">
@@ -3889,9 +3869,9 @@
         <v>78.7</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <f>A46+18</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B244" s="1">
@@ -3904,9 +3884,9 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <f>A47+18</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B245" s="1">
@@ -3919,9 +3899,9 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <f>A48+18</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B246" s="1">
@@ -3934,9 +3914,9 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <f>A49+18</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B247" s="1">
@@ -3949,9 +3929,9 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <f>A50+18</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B248" s="1">
@@ -3964,9 +3944,9 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <f>A51+18</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B249" s="1">
@@ -3979,9 +3959,9 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <f>A52+18</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B250" s="1">
@@ -3994,9 +3974,9 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <f>A53+18</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B251" s="1">
@@ -4009,9 +3989,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <f>A54+18</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B252" s="1">
@@ -4024,9 +4004,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <f>A55+18</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B253" s="1">
@@ -4039,9 +4019,9 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <f>A56+18</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B254" s="1">
@@ -4054,9 +4034,9 @@
         <v>80.400000000000006</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <f>A57+18</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B255" s="1">
@@ -4069,9 +4049,9 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <f>A58+18</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B256" s="1">
@@ -4084,9 +4064,9 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <f>A59+18</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B257" s="1">
@@ -4099,9 +4079,9 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <f>A60+18</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B258" s="1">
@@ -4114,9 +4094,9 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <f>A61+18</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B259" s="1">
@@ -4129,9 +4109,9 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <f>A62+18</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B260" s="1">
@@ -4144,9 +4124,9 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <f>A63+18</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B261" s="1">
@@ -4159,9 +4139,9 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <f>A64+18</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B262" s="1">
@@ -4174,9 +4154,9 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <f>A65+18</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B263" s="1">
@@ -4189,9 +4169,9 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <f>A66+18</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B264" s="1">
@@ -4204,9 +4184,9 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <f>A67+18</f>
+        <f t="shared" ref="A265:A328" si="1">A67+18</f>
         <v>24</v>
       </c>
       <c r="B265" s="1">
@@ -4219,9 +4199,9 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <f>A68+18</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B266" s="1">
@@ -4234,9 +4214,9 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <f>A69+18</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B267" s="1">
@@ -4249,9 +4229,9 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <f>A70+18</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B268" s="1">
@@ -4264,9 +4244,9 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <f>A71+18</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B269" s="1">
@@ -4279,9 +4259,9 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <f>A72+18</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B270" s="1">
@@ -4294,9 +4274,9 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <f>A73+18</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B271" s="1">
@@ -4309,9 +4289,9 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <f>A74+18</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B272" s="1">
@@ -4324,9 +4304,9 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <f>A75+18</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B273" s="1">
@@ -4339,9 +4319,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <f>A76+18</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B274" s="1">
@@ -4354,9 +4334,9 @@
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <f>A77+18</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B275" s="1">
@@ -4369,9 +4349,9 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <f>A78+18</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B276" s="1">
@@ -4384,9 +4364,9 @@
         <v>88.9</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <f>A79+18</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B277" s="1">
@@ -4399,9 +4379,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <f>A80+18</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B278" s="1">
@@ -4414,9 +4394,9 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <f>A81+18</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B279" s="1">
@@ -4429,9 +4409,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <f>A82+18</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B280" s="1">
@@ -4444,9 +4424,9 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <f>A83+18</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B281" s="1">
@@ -4459,9 +4439,9 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <f>A84+18</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B282" s="1">
@@ -4474,9 +4454,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <f>A85+18</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B283" s="1">
@@ -4489,9 +4469,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <f>A86+18</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B284" s="1">
@@ -4504,9 +4484,9 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <f>A87+18</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B285" s="1">
@@ -4519,9 +4499,9 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <f>A88+18</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B286" s="1">
@@ -4534,9 +4514,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <f>A89+18</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B287" s="1">
@@ -4549,9 +4529,9 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <f>A90+18</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B288" s="1">
@@ -4564,9 +4544,9 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <f>A91+18</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B289" s="1">
@@ -4579,9 +4559,9 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <f>A92+18</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B290" s="1">
@@ -4594,9 +4574,9 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <f>A93+18</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B291" s="1">
@@ -4609,9 +4589,9 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <f>A94+18</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B292" s="1">
@@ -4624,9 +4604,9 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <f>A95+18</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B293" s="1">
@@ -4639,9 +4619,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <f>A96+18</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B294" s="1">
@@ -4654,9 +4634,9 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <f>A97+18</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B295" s="1">
@@ -4669,9 +4649,9 @@
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <f>A98+18</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B296" s="1">
@@ -4684,9 +4664,9 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <f>A99+18</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B297" s="1">
@@ -4699,9 +4679,9 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <f>A100+18</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B298" s="1">
@@ -4714,9 +4694,9 @@
         <v>88.9</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <f>A101+18</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B299" s="1">
@@ -4729,9 +4709,9 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <f>A102+18</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B300" s="1">
@@ -4744,9 +4724,9 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <f>A103+18</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B301" s="1">
@@ -4759,9 +4739,9 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <f>A104+18</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B302" s="1">
@@ -4774,9 +4754,9 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <f>A105+18</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B303" s="1">
@@ -4789,9 +4769,9 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <f>A106+18</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B304" s="1">
@@ -4804,9 +4784,9 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <f>A107+18</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B305" s="1">
@@ -4819,9 +4799,9 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <f>A108+18</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B306" s="1">
@@ -4834,9 +4814,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <f>A109+18</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B307" s="1">
@@ -4849,9 +4829,9 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <f>A110+18</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B308" s="1">
@@ -4864,9 +4844,9 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <f>A111+18</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B309" s="1">
@@ -4879,9 +4859,9 @@
         <v>91.1</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <f>A112+18</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B310" s="1">
@@ -4894,9 +4874,9 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <f>A113+18</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B311" s="1">
@@ -4909,9 +4889,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <f>A114+18</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B312" s="1">
@@ -4924,9 +4904,9 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <f>A115+18</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B313" s="1">
@@ -4939,9 +4919,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <f>A116+18</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B314" s="1">
@@ -4954,9 +4934,9 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <f>A117+18</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B315" s="1">
@@ -4969,9 +4949,9 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <f>A118+18</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B316" s="1">
@@ -4984,9 +4964,9 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <f>A119+18</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B317" s="1">
@@ -4999,9 +4979,9 @@
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <f>A120+18</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B318" s="1">
@@ -5014,9 +4994,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <f>A121+18</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B319" s="1">
@@ -5029,9 +5009,9 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <f>A122+18</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B320" s="1">
@@ -5044,9 +5024,9 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <f>A123+18</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B321" s="1">
@@ -5059,9 +5039,9 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <f>A124+18</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B322" s="1">
@@ -5074,9 +5054,9 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <f>A125+18</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B323" s="1">
@@ -5089,9 +5069,9 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <f>A126+18</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B324" s="1">
@@ -5104,9 +5084,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <f>A127+18</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B325" s="1">
@@ -5119,9 +5099,9 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <f>A128+18</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B326" s="1">
@@ -5134,9 +5114,9 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <f>A129+18</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B327" s="1">
@@ -5149,9 +5129,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <f>A130+18</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B328" s="1">
@@ -5164,9 +5144,9 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <f>A131+18</f>
+        <f t="shared" ref="A329:A392" si="2">A131+18</f>
         <v>30</v>
       </c>
       <c r="B329" s="1">
@@ -5179,9 +5159,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <f>A132+18</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B330" s="1">
@@ -5194,9 +5174,9 @@
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <f>A133+18</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B331" s="1">
@@ -5209,9 +5189,9 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <f>A134+18</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B332" s="1">
@@ -5224,9 +5204,9 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <f>A135+18</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B333" s="1">
@@ -5239,9 +5219,9 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <f>A136+18</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B334" s="1">
@@ -5254,9 +5234,9 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <f>A137+18</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B335" s="1">
@@ -5269,9 +5249,9 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <f>A138+18</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B336" s="1">
@@ -5284,9 +5264,9 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <f>A139+18</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B337" s="1">
@@ -5299,9 +5279,9 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <f>A140+18</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B338" s="1">
@@ -5314,9 +5294,9 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <f>A141+18</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B339" s="1">
@@ -5329,9 +5309,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <f>A142+18</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B340" s="1">
@@ -5344,9 +5324,9 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <f>A143+18</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B341" s="1">
@@ -5359,9 +5339,9 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <f>A144+18</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B342" s="1">
@@ -5374,9 +5354,9 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <f>A145+18</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B343" s="1">
@@ -5389,9 +5369,9 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <f>A146+18</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B344" s="1">
@@ -5404,9 +5384,9 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <f>A147+18</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B345" s="1">
@@ -5419,9 +5399,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <f>A148+18</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B346" s="1">
@@ -5434,9 +5414,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <f>A149+18</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B347" s="1">
@@ -5449,9 +5429,9 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <f>A150+18</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B348" s="1">
@@ -5464,9 +5444,9 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <f>A151+18</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B349" s="1">
@@ -5479,9 +5459,9 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <f>A152+18</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B350" s="1">
@@ -5494,9 +5474,9 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <f>A153+18</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B351" s="1">
@@ -5509,9 +5489,9 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <f>A154+18</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B352" s="1">
@@ -5524,9 +5504,9 @@
         <v>67.3</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
-        <f>A155+18</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B353" s="1">
@@ -5539,9 +5519,9 @@
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <f>A156+18</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B354" s="1">
@@ -5554,9 +5534,9 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
-        <f>A157+18</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B355" s="1">
@@ -5569,9 +5549,9 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
-        <f>A158+18</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B356" s="1">
@@ -5584,9 +5564,9 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
-        <f>A159+18</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B357" s="1">
@@ -5599,9 +5579,9 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
-        <f>A160+18</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B358" s="1">
@@ -5614,9 +5594,9 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
-        <f>A161+18</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B359" s="1">
@@ -5629,9 +5609,9 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
-        <f>A162+18</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B360" s="1">
@@ -5644,9 +5624,9 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
-        <f>A163+18</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B361" s="1">
@@ -5659,9 +5639,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
-        <f>A164+18</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B362" s="1">
@@ -5674,9 +5654,9 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <f>A165+18</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B363" s="1">
@@ -5689,9 +5669,9 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <f>A166+18</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B364" s="1">
@@ -5704,9 +5684,9 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <f>A167+18</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B365" s="1">
@@ -5719,9 +5699,9 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <f>A168+18</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B366" s="1">
@@ -5734,9 +5714,9 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <f>A169+18</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B367" s="1">
@@ -5749,9 +5729,9 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
-        <f>A170+18</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B368" s="1">
@@ -5764,9 +5744,9 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <f>A171+18</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B369" s="1">
@@ -5779,9 +5759,9 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <f>A172+18</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B370" s="1">
@@ -5794,9 +5774,9 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <f>A173+18</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B371" s="1">
@@ -5809,9 +5789,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <f>A174+18</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B372" s="1">
@@ -5824,9 +5804,9 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <f>A175+18</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B373" s="1">
@@ -5839,9 +5819,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <f>A176+18</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B374" s="1">
@@ -5854,9 +5834,9 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <f>A177+18</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B375" s="1">
@@ -5869,9 +5849,9 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
-        <f>A178+18</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B376" s="1">
@@ -5884,9 +5864,9 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
-        <f>A179+18</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B377" s="1">
@@ -5899,9 +5879,9 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
-        <f>A180+18</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B378" s="1">
@@ -5914,9 +5894,9 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
-        <f>A181+18</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B379" s="1">
@@ -5929,9 +5909,9 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
-        <f>A182+18</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B380" s="1">
@@ -5944,9 +5924,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
-        <f>A183+18</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B381" s="1">
@@ -5959,9 +5939,9 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
-        <f>A184+18</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B382" s="1">
@@ -5974,9 +5954,9 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
-        <f>A185+18</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B383" s="1">
@@ -5989,9 +5969,9 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <f>A186+18</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B384" s="1">
@@ -6004,9 +5984,9 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
-        <f>A187+18</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B385" s="1">
@@ -6019,9 +5999,9 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
-        <f>A188+18</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B386" s="1">
@@ -6034,9 +6014,9 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
-        <f>A189+18</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B387" s="1">
@@ -6049,9 +6029,9 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
-        <f>A190+18</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B388" s="1">
@@ -6064,9 +6044,9 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
-        <f>A191+18</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B389" s="1">
@@ -6079,9 +6059,9 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
-        <f>A192+18</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B390" s="1">
@@ -6094,9 +6074,9 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
-        <f>A193+18</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B391" s="1">
@@ -6109,9 +6089,9 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
-        <f>A194+18</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B392" s="1">
@@ -6124,9 +6104,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
-        <f>A195+18</f>
+        <f t="shared" ref="A393:A456" si="3">A195+18</f>
         <v>36</v>
       </c>
       <c r="B393" s="1">
@@ -6139,9 +6119,9 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
-        <f>A196+18</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B394" s="1">
@@ -6154,9 +6134,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
-        <f>A197+18</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B395" s="1">
@@ -6169,9 +6149,9 @@
         <v>68.7</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
-        <f>A198+18</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B396" s="1">
@@ -6184,9 +6164,9 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
-        <f>A199+18</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B397" s="1">
@@ -6199,9 +6179,9 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
-        <f>A200+18</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B398" s="1">
@@ -6214,9 +6194,9 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
-        <f>A201+18</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B399" s="1">
@@ -6229,9 +6209,9 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
-        <f>A202+18</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B400" s="1">
@@ -6244,9 +6224,9 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
-        <f>A203+18</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B401" s="1">
@@ -6259,9 +6239,9 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
-        <f>A204+18</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B402" s="1">
@@ -6274,9 +6254,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
-        <f>A205+18</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B403" s="1">
@@ -6289,9 +6269,9 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
-        <f>A206+18</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B404" s="1">
@@ -6304,9 +6284,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
-        <f>A207+18</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B405" s="1">
@@ -6319,9 +6299,9 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
-        <f>A208+18</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B406" s="1">
@@ -6334,9 +6314,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
-        <f>A209+18</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B407" s="1">
@@ -6349,9 +6329,9 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
-        <f>A210+18</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B408" s="1">
@@ -6364,9 +6344,9 @@
         <v>82.1</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
-        <f>A211+18</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B409" s="1">
@@ -6379,9 +6359,9 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
-        <f>A212+18</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B410" s="1">
@@ -6394,9 +6374,9 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
-        <f>A213+18</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B411" s="1">
@@ -6409,9 +6389,9 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
-        <f>A214+18</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B412" s="1">
@@ -6424,9 +6404,9 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
-        <f>A215+18</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B413" s="1">
@@ -6439,9 +6419,9 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
-        <f>A216+18</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B414" s="1">
@@ -6454,9 +6434,9 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
-        <f>A217+18</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B415" s="1">
@@ -6469,9 +6449,9 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
-        <f>A218+18</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B416" s="1">
@@ -6484,9 +6464,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
-        <f>A219+18</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B417" s="1">
@@ -6499,9 +6479,9 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
-        <f>A220+18</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B418" s="1">
@@ -6514,9 +6494,9 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
-        <f>A221+18</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B419" s="1">
@@ -6529,9 +6509,9 @@
         <v>85.1</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
-        <f>A222+18</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B420" s="1">
@@ -6544,9 +6524,9 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
-        <f>A223+18</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B421" s="1">
@@ -6559,9 +6539,9 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
-        <f>A224+18</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B422" s="1">
@@ -6574,9 +6554,9 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
-        <f>A225+18</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B423" s="1">
@@ -6589,9 +6569,9 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
-        <f>A226+18</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B424" s="1">
@@ -6604,9 +6584,9 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
-        <f>A227+18</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B425" s="1">
@@ -6619,9 +6599,9 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
-        <f>A228+18</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B426" s="1">
@@ -6634,9 +6614,9 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
-        <f>A229+18</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B427" s="1">
@@ -6649,9 +6629,9 @@
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
-        <f>A230+18</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B428" s="1">
@@ -6664,9 +6644,9 @@
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
-        <f>A231+18</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B429" s="1">
@@ -6679,9 +6659,9 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
-        <f>A232+18</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B430" s="1">
@@ -6694,9 +6674,9 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
-        <f>A233+18</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B431" s="1">
@@ -6709,9 +6689,9 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
-        <f>A234+18</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B432" s="1">
@@ -6724,9 +6704,9 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
-        <f>A235+18</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B433" s="1">
@@ -6739,9 +6719,9 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
-        <f>A236+18</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B434" s="1">
@@ -6754,9 +6734,9 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
-        <f>A237+18</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B435" s="1">
@@ -6769,9 +6749,9 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
-        <f>A238+18</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B436" s="1">
@@ -6784,9 +6764,9 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
-        <f>A239+18</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B437" s="1">
@@ -6799,9 +6779,9 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
-        <f>A240+18</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B438" s="1">
@@ -6814,9 +6794,9 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
-        <f>A241+18</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B439" s="1">
@@ -6829,9 +6809,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
-        <f>A242+18</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B440" s="1">
@@ -6844,9 +6824,9 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
-        <f>A243+18</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B441" s="1">
@@ -6859,9 +6839,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
-        <f>A244+18</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B442" s="1">
@@ -6874,9 +6854,9 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
-        <f>A245+18</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B443" s="1">
@@ -6889,9 +6869,9 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
-        <f>A246+18</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B444" s="1">
@@ -6904,9 +6884,9 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
-        <f>A247+18</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B445" s="1">
@@ -6919,9 +6899,9 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
-        <f>A248+18</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B446" s="1">
@@ -6934,9 +6914,9 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
-        <f>A249+18</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B447" s="1">
@@ -6949,9 +6929,9 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
-        <f>A250+18</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B448" s="1">
@@ -6964,9 +6944,9 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
-        <f>A251+18</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B449" s="1">
@@ -6979,9 +6959,9 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
-        <f>A252+18</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B450" s="1">
@@ -6994,9 +6974,9 @@
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
-        <f>A253+18</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B451" s="1">
@@ -7009,9 +6989,9 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
-        <f>A254+18</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B452" s="1">
@@ -7024,9 +7004,9 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
-        <f>A255+18</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B453" s="1">
@@ -7039,9 +7019,9 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
-        <f>A256+18</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B454" s="1">
@@ -7054,9 +7034,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
-        <f>A257+18</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B455" s="1">
@@ -7069,9 +7049,9 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
-        <f>A258+18</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B456" s="1">
@@ -7084,9 +7064,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
-        <f>A259+18</f>
+        <f t="shared" ref="A457:A520" si="4">A259+18</f>
         <v>42</v>
       </c>
       <c r="B457" s="1">
@@ -7099,9 +7079,9 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
-        <f>A260+18</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="B458" s="1">
@@ -7114,9 +7094,9 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
-        <f>A261+18</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="B459" s="1">
@@ -7129,9 +7109,9 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
-        <f>A262+18</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="B460" s="1">
@@ -7144,9 +7124,9 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
-        <f>A263+18</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="B461" s="1">
@@ -7159,9 +7139,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
-        <f>A264+18</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="B462" s="1">
@@ -7174,9 +7154,9 @@
         <v>78.7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
-        <f>A265+18</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="B463" s="1">
@@ -7189,9 +7169,9 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
-        <f>A266+18</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B464" s="1">
@@ -7204,9 +7184,9 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
-        <f>A267+18</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B465" s="1">
@@ -7219,9 +7199,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
-        <f>A268+18</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B466" s="1">
@@ -7234,9 +7214,9 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
-        <f>A269+18</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B467" s="1">
@@ -7249,9 +7229,9 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
-        <f>A270+18</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B468" s="1">
@@ -7264,9 +7244,9 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
-        <f>A271+18</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B469" s="1">
@@ -7279,9 +7259,9 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
-        <f>A272+18</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B470" s="1">
@@ -7294,9 +7274,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
-        <f>A273+18</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B471" s="1">
@@ -7309,9 +7289,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
-        <f>A274+18</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B472" s="1">
@@ -7324,9 +7304,9 @@
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
-        <f>A275+18</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B473" s="1">
@@ -7339,9 +7319,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
-        <f>A276+18</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B474" s="1">
@@ -7354,9 +7334,9 @@
         <v>80.400000000000006</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
-        <f>A277+18</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B475" s="1">
@@ -7369,9 +7349,9 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
-        <f>A278+18</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B476" s="1">
@@ -7384,9 +7364,9 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
-        <f>A279+18</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B477" s="1">
@@ -7399,9 +7379,9 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
-        <f>A280+18</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B478" s="1">
@@ -7414,9 +7394,9 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
-        <f>A281+18</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B479" s="1">
@@ -7429,9 +7409,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
-        <f>A282+18</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B480" s="1">
@@ -7444,9 +7424,9 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
-        <f>A283+18</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B481" s="1">
@@ -7459,9 +7439,9 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
-        <f>A284+18</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B482" s="1">
@@ -7474,9 +7454,9 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
-        <f>A285+18</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B483" s="1">
@@ -7489,9 +7469,9 @@
         <v>80.400000000000006</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
-        <f>A286+18</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B484" s="1">
@@ -7504,9 +7484,9 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
-        <f>A287+18</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B485" s="1">
@@ -7519,9 +7499,9 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
-        <f>A288+18</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B486" s="1">
@@ -7534,9 +7514,9 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
-        <f>A289+18</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B487" s="1">
@@ -7549,9 +7529,9 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
-        <f>A290+18</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B488" s="1">
@@ -7564,9 +7544,9 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
-        <f>A291+18</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B489" s="1">
@@ -7579,9 +7559,9 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
-        <f>A292+18</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B490" s="1">
@@ -7594,9 +7574,9 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
-        <f>A293+18</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B491" s="1">
@@ -7609,9 +7589,9 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
-        <f>A294+18</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B492" s="1">
@@ -7624,9 +7604,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
-        <f>A295+18</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B493" s="1">
@@ -7639,9 +7619,9 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
-        <f>A296+18</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B494" s="1">
@@ -7654,9 +7634,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
-        <f>A297+18</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B495" s="1">
@@ -7669,9 +7649,9 @@
         <v>72.3</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
-        <f>A298+18</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B496" s="1">
@@ -7684,9 +7664,9 @@
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
-        <f>A299+18</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B497" s="1">
@@ -7699,9 +7679,9 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
-        <f>A300+18</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B498" s="1">
@@ -7714,9 +7694,9 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
-        <f>A301+18</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B499" s="1">
@@ -7729,9 +7709,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
-        <f>A302+18</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B500" s="1">
@@ -7744,9 +7724,9 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
-        <f>A303+18</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B501" s="1">
@@ -7759,9 +7739,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
-        <f>A304+18</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B502" s="1">
@@ -7774,9 +7754,9 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
-        <f>A305+18</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B503" s="1">
@@ -7789,9 +7769,9 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
-        <f>A306+18</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B504" s="1">
@@ -7804,9 +7784,9 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
-        <f>A307+18</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B505" s="1">
@@ -7819,9 +7799,9 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
-        <f>A308+18</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B506" s="1">
@@ -7834,9 +7814,9 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
-        <f>A309+18</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B507" s="1">
@@ -7849,9 +7829,9 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
-        <f>A310+18</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B508" s="1">
@@ -7864,9 +7844,9 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
-        <f>A311+18</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B509" s="1">
@@ -7879,9 +7859,9 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
-        <f>A312+18</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B510" s="1">
@@ -7894,9 +7874,9 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
-        <f>A313+18</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B511" s="1">
@@ -7909,9 +7889,9 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
-        <f>A314+18</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B512" s="1">
@@ -7924,9 +7904,9 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
-        <f>A315+18</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B513" s="1">
@@ -7939,9 +7919,9 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
-        <f>A316+18</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B514" s="1">
@@ -7954,9 +7934,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
-        <f>A317+18</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B515" s="1">
@@ -7969,9 +7949,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
-        <f>A318+18</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B516" s="1">
@@ -7984,9 +7964,9 @@
         <v>74.099999999999994</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
-        <f>A319+18</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B517" s="1">
@@ -7999,9 +7979,9 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
-        <f>A320+18</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B518" s="1">
@@ -8014,9 +7994,9 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
-        <f>A321+18</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="B519" s="1">
@@ -8029,9 +8009,9 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
-        <f>A322+18</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="B520" s="1">
@@ -8044,9 +8024,9 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
-        <f>A323+18</f>
+        <f t="shared" ref="A521:A584" si="5">A323+18</f>
         <v>48</v>
       </c>
       <c r="B521" s="1">
@@ -8059,9 +8039,9 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
-        <f>A324+18</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="B522" s="1">
@@ -8074,9 +8054,9 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
-        <f>A325+18</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="B523" s="1">
@@ -8089,9 +8069,9 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
-        <f>A326+18</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="B524" s="1">
@@ -8104,9 +8084,9 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
-        <f>A327+18</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="B525" s="1">
@@ -8119,9 +8099,9 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
-        <f>A328+18</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="B526" s="1">
@@ -8134,9 +8114,9 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
-        <f>A329+18</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="B527" s="1">
@@ -8149,9 +8129,9 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
-        <f>A330+18</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="B528" s="1">
@@ -8164,9 +8144,9 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
-        <f>A331+18</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="B529" s="1">
@@ -8179,9 +8159,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
-        <f>A332+18</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="B530" s="1">
@@ -8194,9 +8174,9 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
-        <f>A333+18</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="B531" s="1">
@@ -8209,9 +8189,9 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
-        <f>A334+18</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="B532" s="1">
@@ -8224,9 +8204,9 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
-        <f>A335+18</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="B533" s="1">
@@ -8239,9 +8219,9 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
-        <f>A336+18</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="B534" s="1">
@@ -8254,9 +8234,9 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
-        <f>A337+18</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="B535" s="1">
@@ -8269,9 +8249,9 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
-        <f>A338+18</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="B536" s="1">
@@ -8284,9 +8264,9 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
-        <f>A339+18</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="B537" s="1">
@@ -8299,9 +8279,9 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
-        <f>A340+18</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="B538" s="1">
@@ -8314,9 +8294,9 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
-        <f>A341+18</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="B539" s="1">
@@ -8329,9 +8309,9 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
-        <f>A342+18</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="B540" s="1">
@@ -8344,9 +8324,9 @@
         <v>75.2</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
-        <f>A343+18</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B541" s="1">
@@ -8359,9 +8339,9 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
-        <f>A344+18</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B542" s="1">
@@ -8374,9 +8354,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
-        <f>A345+18</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B543" s="1">
@@ -8389,9 +8369,9 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
-        <f>A346+18</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B544" s="1">
@@ -8404,9 +8384,9 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
-        <f>A347+18</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B545" s="1">
@@ -8419,9 +8399,9 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
-        <f>A348+18</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B546" s="1">
@@ -8434,9 +8414,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
-        <f>A349+18</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B547" s="1">
@@ -8449,9 +8429,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
-        <f>A350+18</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B548" s="1">
@@ -8464,9 +8444,9 @@
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
-        <f>A351+18</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B549" s="1">
@@ -8479,9 +8459,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
-        <f>A352+18</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B550" s="1">
@@ -8494,9 +8474,9 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
-        <f>A353+18</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B551" s="1">
@@ -8509,9 +8489,9 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
-        <f>A354+18</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="B552" s="1">
@@ -8524,9 +8504,9 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
-        <f>A355+18</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="B553" s="1">
@@ -8539,9 +8519,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
-        <f>A356+18</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="B554" s="1">
@@ -8554,9 +8534,9 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
-        <f>A357+18</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="B555" s="1">
@@ -8569,9 +8549,9 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
-        <f>A358+18</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="B556" s="1">
@@ -8584,9 +8564,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
-        <f>A359+18</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="B557" s="1">
@@ -8599,9 +8579,9 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
-        <f>A360+18</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="B558" s="1">
@@ -8614,9 +8594,9 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
-        <f>A361+18</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="B559" s="1">
@@ -8629,9 +8609,9 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
-        <f>A362+18</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="B560" s="1">
@@ -8644,9 +8624,9 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
-        <f>A363+18</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="B561" s="1">
@@ -8659,9 +8639,9 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
-        <f>A364+18</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="B562" s="1">
@@ -8674,9 +8654,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
-        <f>A365+18</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="B563" s="1">
@@ -8689,9 +8669,9 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
-        <f>A366+18</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="B564" s="1">
@@ -8704,9 +8684,9 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
-        <f>A367+18</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="B565" s="1">
@@ -8719,9 +8699,9 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
-        <f>A368+18</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="B566" s="1">
@@ -8734,9 +8714,9 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
-        <f>A369+18</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="B567" s="1">
@@ -8749,9 +8729,9 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
-        <f>A370+18</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="B568" s="1">
@@ -8764,9 +8744,9 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
-        <f>A371+18</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="B569" s="1">
@@ -8779,9 +8759,9 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
-        <f>A372+18</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="B570" s="1">
@@ -8794,9 +8774,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
-        <f>A373+18</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="B571" s="1">
@@ -8809,9 +8789,9 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
-        <f>A374+18</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="B572" s="1">
@@ -8824,9 +8804,9 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
-        <f>A375+18</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="B573" s="1">
@@ -8839,9 +8819,9 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
-        <f>A376+18</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="B574" s="1">
@@ -8854,9 +8834,9 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
-        <f>A377+18</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="B575" s="1">
@@ -8869,9 +8849,9 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
-        <f>A378+18</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="B576" s="1">
@@ -8884,9 +8864,9 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
-        <f>A379+18</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="B577" s="1">
@@ -8899,9 +8879,9 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
-        <f>A380+18</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="B578" s="1">
@@ -8914,9 +8894,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
-        <f>A381+18</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="B579" s="1">
@@ -8929,9 +8909,9 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
-        <f>A382+18</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="B580" s="1">
@@ -8944,9 +8924,9 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
-        <f>A383+18</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="B581" s="1">
@@ -8959,9 +8939,9 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
-        <f>A384+18</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="B582" s="1">
@@ -8974,9 +8954,9 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
-        <f>A385+18</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="B583" s="1">
@@ -8989,9 +8969,9 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
-        <f>A386+18</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="B584" s="1">
@@ -9004,9 +8984,9 @@
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
-        <f>A387+18</f>
+        <f t="shared" ref="A585:A648" si="6">A387+18</f>
         <v>54</v>
       </c>
       <c r="B585" s="1">
@@ -9019,9 +8999,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
-        <f>A388+18</f>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="B586" s="1">
@@ -9034,9 +9014,9 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
-        <f>A389+18</f>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="B587" s="1">
@@ -9049,9 +9029,9 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
-        <f>A390+18</f>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="B588" s="1">
@@ -9064,9 +9044,9 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
-        <f>A391+18</f>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="B589" s="1">
@@ -9079,9 +9059,9 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
-        <f>A392+18</f>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="B590" s="1">
@@ -9094,9 +9074,9 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
-        <f>A393+18</f>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="B591" s="1">
@@ -9109,9 +9089,9 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
-        <f>A394+18</f>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="B592" s="1">
@@ -9124,9 +9104,9 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
-        <f>A395+18</f>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="B593" s="1">
@@ -9139,9 +9119,9 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
-        <f>A396+18</f>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="B594" s="1">
@@ -9154,9 +9134,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
-        <f>A397+18</f>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="B595" s="1">
@@ -9170,7 +9150,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D595">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D595">
     <sortCondition ref="C2:C595"/>
     <sortCondition ref="A2:A595"/>
     <sortCondition ref="B2:B595"/>
